--- a/biology/Zoologie/Entomophthoromycetes/Entomophthoromycetes.xlsx
+++ b/biology/Zoologie/Entomophthoromycetes/Entomophthoromycetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Entomophthoromycetes sont une classe de champignons parasites d'insectes de la division des Entomophthoromycota.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (1er août 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (1er août 2023) :
 Ancylistales S.H. Vines, 1888
 Entomophthorales G. Winter, 1880</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Entomophthoromycetes Humber, 2012[1], formé à partir du genre type Entomophthora.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Entomophthoromycetes Humber, 2012, formé à partir du genre type Entomophthora.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Richard A. Humber, « Entomophthoromycota : a new phylum and reclassification for entomophthoroid fungi », Mycotaxon, Mycotaxon Publications (d), vol. 120, no 1,‎ 28 septembre 2012, p. 477-492 (ISSN 0093-4666 et 2154-8889, OCLC 1798491, DOI 10.5248/120.477)</t>
         </is>
